--- a/tests/testsuite_docs/fill_config_file/good/lst_two_elements_expected.xlsx
+++ b/tests/testsuite_docs/fill_config_file/good/lst_two_elements_expected.xlsx
@@ -1,90 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Infos à extraire"/>
-    <sheet r:id="rId2" sheetId="2" name="Sources"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Infos à extraire" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sources" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
-  <si>
-    <t>Nom source</t>
-  </si>
-  <si>
-    <t>Chemin d'accès fichier</t>
-  </si>
-  <si>
-    <t>o1</t>
-  </si>
-  <si>
-    <t>1.txt</t>
-  </si>
-  <si>
-    <t>Options</t>
-  </si>
-  <si>
-    <t>Instruction</t>
-  </si>
-  <si>
-    <t>Nom information</t>
-  </si>
-  <si>
-    <t>Descriptif de l'information</t>
-  </si>
-  <si>
-    <t>Information</t>
-  </si>
-  <si>
-    <t>Texte exact</t>
-  </si>
-  <si>
-    <t>n1:1</t>
-  </si>
-  <si>
-    <t>n1:s1</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>n1:2</t>
-  </si>
-  <si>
-    <t>t2</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -302,75 +252,143 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -658,165 +676,206 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="24.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="38.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="43.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="23.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="34.43357142857143" customWidth="1" bestFit="1"/>
+    <col width="12.43357142857143" bestFit="1" customWidth="1" style="9" min="1" max="1"/>
+    <col width="24.14785714285714" bestFit="1" customWidth="1" style="10" min="2" max="2"/>
+    <col width="38.86214285714286" bestFit="1" customWidth="1" style="10" min="3" max="3"/>
+    <col width="43.14785714285715" bestFit="1" customWidth="1" style="10" min="4" max="4"/>
+    <col width="23.57642857142857" bestFit="1" customWidth="1" style="9" min="5" max="5"/>
+    <col width="34.43357142857143" bestFit="1" customWidth="1" style="10" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="1"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="1"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="1"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="1"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="1"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="1"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="1"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="18"/>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="9" t="n"/>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="9" t="n"/>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="19.5" customHeight="1">
+      <c r="A2" s="9" t="inlineStr">
+        <is>
+          <t>Instruction</t>
+        </is>
+      </c>
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>Nom information</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Descriptif de l'information</t>
+        </is>
+      </c>
+      <c r="D2" s="12" t="inlineStr">
+        <is>
+          <t>Nom source</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Information</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Texte exact</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="19.5" customHeight="1">
+      <c r="A3" s="9" t="inlineStr">
+        <is>
+          <t>n1:1</t>
+        </is>
+      </c>
+      <c r="B3" s="13" t="inlineStr">
+        <is>
+          <t>n1:s1</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="n"/>
+      <c r="D3" s="14" t="inlineStr">
+        <is>
+          <t>o1</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="inlineStr">
+        <is>
+          <t>t1</t>
+        </is>
+      </c>
+      <c r="F3" s="15" t="n"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="20" t="inlineStr">
+        <is>
+          <t>n1:2</t>
+        </is>
+      </c>
+      <c r="B4" s="13" t="inlineStr">
+        <is>
+          <t>n1:s1</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="n"/>
+      <c r="D4" s="14" t="inlineStr">
+        <is>
+          <t>o1</t>
+        </is>
+      </c>
+      <c r="E4" s="20" t="inlineStr">
+        <is>
+          <t>t2</t>
+        </is>
+      </c>
+      <c r="F4" s="15" t="n"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" s="9" t="n"/>
+      <c r="B5" s="16" t="inlineStr"/>
+      <c r="C5" s="5" t="n"/>
+      <c r="D5" s="14" t="n"/>
+      <c r="E5" s="9" t="n"/>
+      <c r="F5" s="15" t="n"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" s="9" t="n"/>
+      <c r="B6" s="13" t="n"/>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="14" t="n"/>
+      <c r="E6" s="9" t="n"/>
+      <c r="F6" s="15" t="n"/>
+    </row>
+    <row r="7" ht="18.75" customHeight="1">
+      <c r="A7" s="9" t="n"/>
+      <c r="B7" s="13" t="n"/>
+      <c r="C7" s="5" t="n"/>
+      <c r="D7" s="14" t="n"/>
+      <c r="E7" s="9" t="n"/>
+      <c r="F7" s="15" t="n"/>
+    </row>
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="A8" s="9" t="n"/>
+      <c r="B8" s="13" t="n"/>
+      <c r="C8" s="5" t="n"/>
+      <c r="D8" s="14" t="n"/>
+      <c r="E8" s="9" t="n"/>
+      <c r="F8" s="15" t="n"/>
+    </row>
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="A9" s="9" t="n"/>
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="5" t="n"/>
+      <c r="D9" s="14" t="n"/>
+      <c r="E9" s="9" t="n"/>
+      <c r="F9" s="15" t="n"/>
+    </row>
+    <row r="10" ht="18.75" customHeight="1">
+      <c r="A10" s="9" t="n"/>
+      <c r="B10" s="13" t="n"/>
+      <c r="C10" s="5" t="n"/>
+      <c r="D10" s="14" t="n"/>
+      <c r="E10" s="9" t="n"/>
+      <c r="F10" s="15" t="n"/>
+    </row>
+    <row r="11" ht="18.75" customHeight="1">
+      <c r="A11" s="9" t="n"/>
+      <c r="B11" s="13" t="n"/>
+      <c r="C11" s="5" t="n"/>
+      <c r="D11" s="14" t="n"/>
+      <c r="E11" s="9" t="n"/>
+      <c r="F11" s="15" t="n"/>
+    </row>
+    <row r="12" ht="18.75" customHeight="1">
+      <c r="A12" s="9" t="n"/>
+      <c r="B12" s="13" t="n"/>
+      <c r="C12" s="5" t="n"/>
+      <c r="D12" s="14" t="n"/>
+      <c r="E12" s="9" t="n"/>
+      <c r="F12" s="15" t="n"/>
+    </row>
+    <row r="13" ht="18.75" customHeight="1">
+      <c r="A13" s="9" t="n"/>
+      <c r="B13" s="13" t="n"/>
+      <c r="C13" s="5" t="n"/>
+      <c r="D13" s="14" t="n"/>
+      <c r="E13" s="9" t="n"/>
+      <c r="F13" s="15" t="n"/>
+    </row>
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="13" t="n"/>
+      <c r="C14" s="5" t="n"/>
+      <c r="D14" s="14" t="n"/>
+      <c r="E14" s="9" t="n"/>
+      <c r="F14" s="15" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="n"/>
+      <c r="B15" s="17" t="n"/>
+      <c r="C15" s="7" t="n"/>
+      <c r="D15" s="18" t="n"/>
+      <c r="E15" s="9" t="n"/>
+      <c r="F15" s="19" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -824,143 +883,154 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="38.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="140.4335714285714" customWidth="1" bestFit="1"/>
+    <col width="12.43357142857143" bestFit="1" customWidth="1" style="9" min="1" max="1"/>
+    <col width="38.71928571428572" bestFit="1" customWidth="1" style="10" min="2" max="2"/>
+    <col width="140.4335714285714" bestFit="1" customWidth="1" style="10" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="1"/>
-      <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="1"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="1"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="1"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="1"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="1"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="1"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="1"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="1"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="1"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="1"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="9" t="n"/>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+    </row>
+    <row r="2" ht="19.5" customHeight="1">
+      <c r="A2" s="9" t="n"/>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Nom source</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>Chemin d'accès fichier</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="19.5" customHeight="1">
+      <c r="A3" s="9" t="n"/>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>o1</t>
+        </is>
+      </c>
+      <c r="C3" s="6" t="inlineStr">
+        <is>
+          <t>1.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="9" t="n"/>
+      <c r="B4" s="5" t="n"/>
+      <c r="C4" s="6" t="n"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" s="9" t="n"/>
+      <c r="B5" s="5" t="n"/>
+      <c r="C5" s="6" t="n"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" s="9" t="n"/>
+      <c r="B6" s="5" t="n"/>
+      <c r="C6" s="6" t="n"/>
+    </row>
+    <row r="7" ht="18.75" customHeight="1">
+      <c r="A7" s="9" t="n"/>
+      <c r="B7" s="5" t="n"/>
+      <c r="C7" s="6" t="n"/>
+    </row>
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="A8" s="9" t="n"/>
+      <c r="B8" s="5" t="n"/>
+      <c r="C8" s="6" t="n"/>
+    </row>
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="A9" s="9" t="n"/>
+      <c r="B9" s="5" t="n"/>
+      <c r="C9" s="6" t="n"/>
+    </row>
+    <row r="10" ht="18.75" customHeight="1">
+      <c r="A10" s="9" t="n"/>
+      <c r="B10" s="5" t="n"/>
+      <c r="C10" s="6" t="n"/>
+    </row>
+    <row r="11" ht="18.75" customHeight="1">
+      <c r="A11" s="9" t="n"/>
+      <c r="B11" s="5" t="n"/>
+      <c r="C11" s="6" t="n"/>
+    </row>
+    <row r="12" ht="18.75" customHeight="1">
+      <c r="A12" s="9" t="n"/>
+      <c r="B12" s="5" t="n"/>
+      <c r="C12" s="6" t="n"/>
+    </row>
+    <row r="13" ht="18.75" customHeight="1">
+      <c r="A13" s="9" t="n"/>
+      <c r="B13" s="5" t="n"/>
+      <c r="C13" s="6" t="n"/>
+    </row>
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="5" t="n"/>
+      <c r="C14" s="6" t="n"/>
+    </row>
+    <row r="15" ht="18.75" customHeight="1">
+      <c r="A15" s="9" t="n"/>
+      <c r="B15" s="5" t="n"/>
+      <c r="C15" s="6" t="n"/>
+    </row>
+    <row r="16" ht="18.75" customHeight="1">
+      <c r="A16" s="9" t="n"/>
+      <c r="B16" s="5" t="n"/>
+      <c r="C16" s="6" t="n"/>
+    </row>
+    <row r="17" ht="18.75" customHeight="1">
+      <c r="A17" s="9" t="n"/>
+      <c r="B17" s="5" t="n"/>
+      <c r="C17" s="6" t="n"/>
+    </row>
+    <row r="18" ht="18.75" customHeight="1">
+      <c r="A18" s="9" t="n"/>
+      <c r="B18" s="5" t="n"/>
+      <c r="C18" s="6" t="n"/>
+    </row>
+    <row r="19" ht="18.75" customHeight="1">
+      <c r="A19" s="9" t="n"/>
+      <c r="B19" s="5" t="n"/>
+      <c r="C19" s="6" t="n"/>
+    </row>
+    <row r="20" ht="18.75" customHeight="1">
+      <c r="A20" s="9" t="n"/>
+      <c r="B20" s="5" t="n"/>
+      <c r="C20" s="6" t="n"/>
+    </row>
+    <row r="21" ht="18.75" customHeight="1">
+      <c r="A21" s="9" t="n"/>
+      <c r="B21" s="5" t="n"/>
+      <c r="C21" s="6" t="n"/>
+    </row>
+    <row r="22" ht="18.75" customHeight="1">
+      <c r="A22" s="9" t="n"/>
+      <c r="B22" s="5" t="n"/>
+      <c r="C22" s="6" t="n"/>
+    </row>
+    <row r="23" ht="18.75" customHeight="1">
+      <c r="A23" s="9" t="n"/>
+      <c r="B23" s="7" t="n"/>
+      <c r="C23" s="8" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
